--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>112.432976</v>
+        <v>138.0684815</v>
       </c>
       <c r="H2">
-        <v>224.865952</v>
+        <v>276.136963</v>
       </c>
       <c r="I2">
-        <v>0.1400030798658597</v>
+        <v>0.1344919680862191</v>
       </c>
       <c r="J2">
-        <v>0.103498459527239</v>
+        <v>0.09891648944107198</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.9078655</v>
+        <v>0.8649065</v>
       </c>
       <c r="N2">
-        <v>3.815731</v>
+        <v>1.729813</v>
       </c>
       <c r="O2">
-        <v>0.01269552586568416</v>
+        <v>0.002947465296813262</v>
       </c>
       <c r="P2">
-        <v>0.00849965309904553</v>
+        <v>0.001967406134934711</v>
       </c>
       <c r="Q2">
-        <v>214.506995972728</v>
+        <v>119.4163270944798</v>
       </c>
       <c r="R2">
-        <v>858.027983890912</v>
+        <v>477.6653083779191</v>
       </c>
       <c r="S2">
-        <v>0.001777412721712467</v>
+        <v>0.0003964104086342475</v>
       </c>
       <c r="T2">
-        <v>0.0008797010022671354</v>
+        <v>0.0001946089081725695</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>112.432976</v>
+        <v>138.0684815</v>
       </c>
       <c r="H3">
-        <v>224.865952</v>
+        <v>276.136963</v>
       </c>
       <c r="I3">
-        <v>0.1400030798658597</v>
+        <v>0.1344919680862191</v>
       </c>
       <c r="J3">
-        <v>0.103498459527239</v>
+        <v>0.09891648944107198</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>4.007239</v>
       </c>
       <c r="O3">
-        <v>0.008888468356299806</v>
+        <v>0.004552013382770923</v>
       </c>
       <c r="P3">
-        <v>0.008926242805105003</v>
+        <v>0.004557640966248742</v>
       </c>
       <c r="Q3">
-        <v>150.1819354377547</v>
+        <v>184.4244679125262</v>
       </c>
       <c r="R3">
-        <v>901.091612626528</v>
+        <v>1106.546807475157</v>
       </c>
       <c r="S3">
-        <v>0.001244412945172209</v>
+        <v>0.0006122092386036691</v>
       </c>
       <c r="T3">
-        <v>0.0009238523796944684</v>
+        <v>0.0004508258445141408</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>112.432976</v>
+        <v>138.0684815</v>
       </c>
       <c r="H4">
-        <v>224.865952</v>
+        <v>276.136963</v>
       </c>
       <c r="I4">
-        <v>0.1400030798658597</v>
+        <v>0.1344919680862191</v>
       </c>
       <c r="J4">
-        <v>0.103498459527239</v>
+        <v>0.09891648944107198</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>64.66363666666666</v>
+        <v>103.650617</v>
       </c>
       <c r="N4">
-        <v>193.99091</v>
+        <v>310.951851</v>
       </c>
       <c r="O4">
-        <v>0.4302917956590069</v>
+        <v>0.353224997847493</v>
       </c>
       <c r="P4">
-        <v>0.4321204611562404</v>
+        <v>0.3536616844287238</v>
       </c>
       <c r="Q4">
-        <v>7270.325109416052</v>
+        <v>14310.88329572809</v>
       </c>
       <c r="R4">
-        <v>43621.95065649632</v>
+        <v>85865.29977436854</v>
       </c>
       <c r="S4">
-        <v>0.06024217663327215</v>
+        <v>0.04750592513775983</v>
       </c>
       <c r="T4">
-        <v>0.044723802059871</v>
+        <v>0.03498297227350559</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>112.432976</v>
+        <v>138.0684815</v>
       </c>
       <c r="H5">
-        <v>224.865952</v>
+        <v>276.136963</v>
       </c>
       <c r="I5">
-        <v>0.1400030798658597</v>
+        <v>0.1344919680862191</v>
       </c>
       <c r="J5">
-        <v>0.103498459527239</v>
+        <v>0.09891648944107198</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.745477</v>
+        <v>0.2220785</v>
       </c>
       <c r="N5">
-        <v>5.236431</v>
+        <v>0.444157</v>
       </c>
       <c r="O5">
-        <v>0.01161494266836776</v>
+        <v>0.0007568085936668807</v>
       </c>
       <c r="P5">
-        <v>0.01166430416009097</v>
+        <v>0.0005051628162548184</v>
       </c>
       <c r="Q5">
-        <v>196.249173649552</v>
+        <v>30.66204126879775</v>
       </c>
       <c r="R5">
-        <v>1177.495041897312</v>
+        <v>122.648165075191</v>
       </c>
       <c r="S5">
-        <v>0.001626127746036873</v>
+        <v>0.0001017846772268225</v>
       </c>
       <c r="T5">
-        <v>0.001207237512026581</v>
+        <v>4.996893238009193E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>112.432976</v>
+        <v>138.0684815</v>
       </c>
       <c r="H6">
-        <v>224.865952</v>
+        <v>276.136963</v>
       </c>
       <c r="I6">
-        <v>0.1400030798658597</v>
+        <v>0.1344919680862191</v>
       </c>
       <c r="J6">
-        <v>0.103498459527239</v>
+        <v>0.09891648944107198</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.62584666666666</v>
+        <v>144.6793443333333</v>
       </c>
       <c r="N6">
-        <v>241.87754</v>
+        <v>434.038033</v>
       </c>
       <c r="O6">
-        <v>0.5365092674506413</v>
+        <v>0.4930444465247936</v>
       </c>
       <c r="P6">
-        <v>0.5387893387795181</v>
+        <v>0.4936539897198103</v>
       </c>
       <c r="Q6">
-        <v>9065.003883253012</v>
+        <v>19975.65737651896</v>
       </c>
       <c r="R6">
-        <v>54390.02329951808</v>
+        <v>119853.9442591138</v>
       </c>
       <c r="S6">
-        <v>0.07511294981966604</v>
+        <v>0.06631051796710008</v>
       </c>
       <c r="T6">
-        <v>0.05576386657337982</v>
+        <v>0.04883051966166268</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>226.779063</v>
+        <v>138.0684815</v>
       </c>
       <c r="H7">
-        <v>680.337189</v>
+        <v>276.136963</v>
       </c>
       <c r="I7">
-        <v>0.2823883917214273</v>
+        <v>0.1344919680862191</v>
       </c>
       <c r="J7">
-        <v>0.3131370062667027</v>
+        <v>0.09891648944107198</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.9078655</v>
+        <v>42.688082</v>
       </c>
       <c r="N7">
-        <v>3.815731</v>
+        <v>128.064246</v>
       </c>
       <c r="O7">
-        <v>0.01269552586568416</v>
+        <v>0.1454742683544624</v>
       </c>
       <c r="P7">
-        <v>0.00849965309904553</v>
+        <v>0.1456541159340275</v>
       </c>
       <c r="Q7">
-        <v>432.6639504200265</v>
+        <v>5893.878659887484</v>
       </c>
       <c r="R7">
-        <v>2595.983702520159</v>
+        <v>35363.2719593249</v>
       </c>
       <c r="S7">
-        <v>0.003585069131268331</v>
+        <v>0.01956512065689443</v>
       </c>
       <c r="T7">
-        <v>0.002661555925740619</v>
+        <v>0.01440759382083691</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>680.337189</v>
       </c>
       <c r="I8">
-        <v>0.2823883917214273</v>
+        <v>0.2209045987343509</v>
       </c>
       <c r="J8">
-        <v>0.3131370062667027</v>
+        <v>0.243707201096751</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>1.335746333333333</v>
+        <v>0.8649065</v>
       </c>
       <c r="N8">
-        <v>4.007239</v>
+        <v>1.729813</v>
       </c>
       <c r="O8">
-        <v>0.008888468356299806</v>
+        <v>0.002947465296813262</v>
       </c>
       <c r="P8">
-        <v>0.008926242805105003</v>
+        <v>0.001967406134934711</v>
       </c>
       <c r="Q8">
-        <v>302.919301879019</v>
+        <v>196.1426856526095</v>
       </c>
       <c r="R8">
-        <v>2726.273716911171</v>
+        <v>1176.856113915657</v>
       </c>
       <c r="S8">
-        <v>0.002510000284002301</v>
+        <v>0.0006511086386759582</v>
       </c>
       <c r="T8">
-        <v>0.002795136949200275</v>
+        <v>0.0004794710425655151</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>680.337189</v>
       </c>
       <c r="I9">
-        <v>0.2823883917214273</v>
+        <v>0.2209045987343509</v>
       </c>
       <c r="J9">
-        <v>0.3131370062667027</v>
+        <v>0.243707201096751</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>64.66363666666666</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N9">
-        <v>193.99091</v>
+        <v>4.007239</v>
       </c>
       <c r="O9">
-        <v>0.4302917956590069</v>
+        <v>0.004552013382770923</v>
       </c>
       <c r="P9">
-        <v>0.4321204611562404</v>
+        <v>0.004557640966248742</v>
       </c>
       <c r="Q9">
-        <v>14664.35893343911</v>
+        <v>302.919301879019</v>
       </c>
       <c r="R9">
-        <v>131979.230400952</v>
+        <v>2726.273716911171</v>
       </c>
       <c r="S9">
-        <v>0.121509408147072</v>
+        <v>0.001005560689754406</v>
       </c>
       <c r="T9">
-        <v>0.1353129075530521</v>
+        <v>0.001110729923488373</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>680.337189</v>
       </c>
       <c r="I10">
-        <v>0.2823883917214273</v>
+        <v>0.2209045987343509</v>
       </c>
       <c r="J10">
-        <v>0.3131370062667027</v>
+        <v>0.243707201096751</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.745477</v>
+        <v>103.650617</v>
       </c>
       <c r="N10">
-        <v>5.236431</v>
+        <v>310.951851</v>
       </c>
       <c r="O10">
-        <v>0.01161494266836776</v>
+        <v>0.353224997847493</v>
       </c>
       <c r="P10">
-        <v>0.01166430416009097</v>
+        <v>0.3536616844287238</v>
       </c>
       <c r="Q10">
-        <v>395.837638548051</v>
+        <v>23505.78980263187</v>
       </c>
       <c r="R10">
-        <v>3562.538746932459</v>
+        <v>211552.1082236868</v>
       </c>
       <c r="S10">
-        <v>0.003279924980056955</v>
+        <v>0.07802902641244241</v>
       </c>
       <c r="T10">
-        <v>0.003652525284875132</v>
+        <v>0.08618989924728668</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>680.337189</v>
       </c>
       <c r="I11">
-        <v>0.2823883917214273</v>
+        <v>0.2209045987343509</v>
       </c>
       <c r="J11">
-        <v>0.3131370062667027</v>
+        <v>0.243707201096751</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>80.62584666666666</v>
+        <v>0.2220785</v>
       </c>
       <c r="N11">
-        <v>241.87754</v>
+        <v>0.444157</v>
       </c>
       <c r="O11">
-        <v>0.5365092674506413</v>
+        <v>0.0007568085936668807</v>
       </c>
       <c r="P11">
-        <v>0.5387893387795181</v>
+        <v>0.0005051628162548184</v>
       </c>
       <c r="Q11">
-        <v>18284.25396064834</v>
+        <v>50.3627541424455</v>
       </c>
       <c r="R11">
-        <v>164558.285645835</v>
+        <v>302.176524854673</v>
       </c>
       <c r="S11">
-        <v>0.1515039891790277</v>
+        <v>0.0001671824987026907</v>
       </c>
       <c r="T11">
-        <v>0.1687148805538345</v>
+        <v>0.0001231118160476141</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>175.151614</v>
+        <v>226.779063</v>
       </c>
       <c r="H12">
-        <v>525.454842</v>
+        <v>680.337189</v>
       </c>
       <c r="I12">
-        <v>0.218101185932108</v>
+        <v>0.2209045987343509</v>
       </c>
       <c r="J12">
-        <v>0.241849716306223</v>
+        <v>0.243707201096751</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.9078655</v>
+        <v>144.6793443333333</v>
       </c>
       <c r="N12">
-        <v>3.815731</v>
+        <v>434.038033</v>
       </c>
       <c r="O12">
-        <v>0.01269552586568416</v>
+        <v>0.4930444465247936</v>
       </c>
       <c r="P12">
-        <v>0.00849965309904553</v>
+        <v>0.4936539897198103</v>
       </c>
       <c r="Q12">
-        <v>334.165721619917</v>
+        <v>32810.24614336769</v>
       </c>
       <c r="R12">
-        <v>2004.994329719502</v>
+        <v>295292.2152903092</v>
       </c>
       <c r="S12">
-        <v>0.002768909247337467</v>
+        <v>0.1089157856177597</v>
       </c>
       <c r="T12">
-        <v>0.002055638690705471</v>
+        <v>0.1203070321448593</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>175.151614</v>
+        <v>226.779063</v>
       </c>
       <c r="H13">
-        <v>525.454842</v>
+        <v>680.337189</v>
       </c>
       <c r="I13">
-        <v>0.218101185932108</v>
+        <v>0.2209045987343509</v>
       </c>
       <c r="J13">
-        <v>0.241849716306223</v>
+        <v>0.243707201096751</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.335746333333333</v>
+        <v>42.688082</v>
       </c>
       <c r="N13">
-        <v>4.007239</v>
+        <v>128.064246</v>
       </c>
       <c r="O13">
-        <v>0.008888468356299806</v>
+        <v>0.1454742683544624</v>
       </c>
       <c r="P13">
-        <v>0.008926242805105003</v>
+        <v>0.1456541159340275</v>
       </c>
       <c r="Q13">
-        <v>233.9581261779153</v>
+        <v>9680.763237227166</v>
       </c>
       <c r="R13">
-        <v>2105.623135601238</v>
+        <v>87126.86913504449</v>
       </c>
       <c r="S13">
-        <v>0.001938585489629003</v>
+        <v>0.03213593487701581</v>
       </c>
       <c r="T13">
-        <v>0.00215880929009511</v>
+        <v>0.03549695692250353</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>175.151614</v>
+        <v>202.707067</v>
       </c>
       <c r="H14">
-        <v>525.454842</v>
+        <v>608.1212009999999</v>
       </c>
       <c r="I14">
-        <v>0.218101185932108</v>
+        <v>0.1974561615339781</v>
       </c>
       <c r="J14">
-        <v>0.241849716306223</v>
+        <v>0.2178383281401139</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>64.66363666666666</v>
+        <v>0.8649065</v>
       </c>
       <c r="N14">
-        <v>193.99091</v>
+        <v>1.729813</v>
       </c>
       <c r="O14">
-        <v>0.4302917956590069</v>
+        <v>0.002947465296813262</v>
       </c>
       <c r="P14">
-        <v>0.4321204611562404</v>
+        <v>0.001967406134934711</v>
       </c>
       <c r="Q14">
-        <v>11325.94032927625</v>
+        <v>175.3226598442355</v>
       </c>
       <c r="R14">
-        <v>101933.4629634862</v>
+        <v>1051.935959065413</v>
       </c>
       <c r="S14">
-        <v>0.09384715093008571</v>
+        <v>0.000581995183763354</v>
       </c>
       <c r="T14">
-        <v>0.104508210940751</v>
+        <v>0.0004285764632067808</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>175.151614</v>
+        <v>202.707067</v>
       </c>
       <c r="H15">
-        <v>525.454842</v>
+        <v>608.1212009999999</v>
       </c>
       <c r="I15">
-        <v>0.218101185932108</v>
+        <v>0.1974561615339781</v>
       </c>
       <c r="J15">
-        <v>0.241849716306223</v>
+        <v>0.2178383281401139</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>1.745477</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N15">
-        <v>5.236431</v>
+        <v>4.007239</v>
       </c>
       <c r="O15">
-        <v>0.01161494266836776</v>
+        <v>0.004552013382770923</v>
       </c>
       <c r="P15">
-        <v>0.01166430416009097</v>
+        <v>0.004557640966248742</v>
       </c>
       <c r="Q15">
-        <v>305.723113749878</v>
+        <v>270.7652214860043</v>
       </c>
       <c r="R15">
-        <v>2751.508023748902</v>
+        <v>2436.886993374039</v>
       </c>
       <c r="S15">
-        <v>0.002533232770504451</v>
+        <v>0.0008988230898132454</v>
       </c>
       <c r="T15">
-        <v>0.002821008652027499</v>
+        <v>0.0009928288883505193</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>175.151614</v>
+        <v>202.707067</v>
       </c>
       <c r="H16">
-        <v>525.454842</v>
+        <v>608.1212009999999</v>
       </c>
       <c r="I16">
-        <v>0.218101185932108</v>
+        <v>0.1974561615339781</v>
       </c>
       <c r="J16">
-        <v>0.241849716306223</v>
+        <v>0.2178383281401139</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,95 +1429,95 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.62584666666666</v>
+        <v>103.650617</v>
       </c>
       <c r="N16">
-        <v>241.87754</v>
+        <v>310.951851</v>
       </c>
       <c r="O16">
-        <v>0.5365092674506413</v>
+        <v>0.353224997847493</v>
       </c>
       <c r="P16">
-        <v>0.5387893387795181</v>
+        <v>0.3536616844287238</v>
       </c>
       <c r="Q16">
-        <v>14121.74717378319</v>
+        <v>21010.71256481034</v>
       </c>
       <c r="R16">
-        <v>127095.7245640487</v>
+        <v>189096.413083293</v>
       </c>
       <c r="S16">
-        <v>0.1170133074945514</v>
+        <v>0.06974645223281363</v>
       </c>
       <c r="T16">
-        <v>0.130306048732644</v>
+        <v>0.07704107006316976</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>124.1418495</v>
+        <v>202.707067</v>
       </c>
       <c r="H17">
-        <v>248.283699</v>
+        <v>608.1212009999999</v>
       </c>
       <c r="I17">
-        <v>0.1545831293324837</v>
+        <v>0.1974561615339781</v>
       </c>
       <c r="J17">
-        <v>0.1142768842666972</v>
+        <v>0.2178383281401139</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>1.9078655</v>
+        <v>0.2220785</v>
       </c>
       <c r="N17">
-        <v>3.815731</v>
+        <v>0.444157</v>
       </c>
       <c r="O17">
-        <v>0.01269552586568416</v>
+        <v>0.0007568085936668807</v>
       </c>
       <c r="P17">
-        <v>0.00849965309904553</v>
+        <v>0.0005051628162548184</v>
       </c>
       <c r="Q17">
-        <v>236.8459517672423</v>
+        <v>45.01688137875949</v>
       </c>
       <c r="R17">
-        <v>947.3838070689691</v>
+        <v>270.101288272557</v>
       </c>
       <c r="S17">
-        <v>0.001962514116838947</v>
+        <v>0.0001494365199213904</v>
       </c>
       <c r="T17">
-        <v>0.0009713138735067005</v>
+        <v>0.0001100438233315012</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>124.1418495</v>
+        <v>202.707067</v>
       </c>
       <c r="H18">
-        <v>248.283699</v>
+        <v>608.1212009999999</v>
       </c>
       <c r="I18">
-        <v>0.1545831293324837</v>
+        <v>0.1974561615339781</v>
       </c>
       <c r="J18">
-        <v>0.1142768842666972</v>
+        <v>0.2178383281401139</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>1.335746333333333</v>
+        <v>144.6793443333333</v>
       </c>
       <c r="N18">
-        <v>4.007239</v>
+        <v>434.038033</v>
       </c>
       <c r="O18">
-        <v>0.008888468356299806</v>
+        <v>0.4930444465247936</v>
       </c>
       <c r="P18">
-        <v>0.008926242805105003</v>
+        <v>0.4936539897198103</v>
       </c>
       <c r="Q18">
-        <v>165.8220202828435</v>
+        <v>29327.52554529306</v>
       </c>
       <c r="R18">
-        <v>994.9321216970611</v>
+        <v>263947.7299076376</v>
       </c>
       <c r="S18">
-        <v>0.001374007253489582</v>
+        <v>0.09735466387643045</v>
       </c>
       <c r="T18">
-        <v>0.001020063215975423</v>
+        <v>0.1075367598002605</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>124.1418495</v>
+        <v>202.707067</v>
       </c>
       <c r="H19">
-        <v>248.283699</v>
+        <v>608.1212009999999</v>
       </c>
       <c r="I19">
-        <v>0.1545831293324837</v>
+        <v>0.1974561615339781</v>
       </c>
       <c r="J19">
-        <v>0.1142768842666972</v>
+        <v>0.2178383281401139</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>64.66363666666666</v>
+        <v>42.688082</v>
       </c>
       <c r="N19">
-        <v>193.99091</v>
+        <v>128.064246</v>
       </c>
       <c r="O19">
-        <v>0.4302917956590069</v>
+        <v>0.1454742683544624</v>
       </c>
       <c r="P19">
-        <v>0.4321204611562404</v>
+        <v>0.1456541159340275</v>
       </c>
       <c r="Q19">
-        <v>8027.463451196015</v>
+        <v>8653.175898075493</v>
       </c>
       <c r="R19">
-        <v>48164.78070717609</v>
+        <v>77878.58308267944</v>
       </c>
       <c r="S19">
-        <v>0.06651585229906294</v>
+        <v>0.02872479063123601</v>
       </c>
       <c r="T19">
-        <v>0.04938137992882352</v>
+        <v>0.03172904910179489</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>124.1418495</v>
+        <v>150.09272</v>
       </c>
       <c r="H20">
-        <v>248.283699</v>
+        <v>300.18544</v>
       </c>
       <c r="I20">
-        <v>0.1545831293324837</v>
+        <v>0.1462047318034262</v>
       </c>
       <c r="J20">
-        <v>0.1142768842666972</v>
+        <v>0.1075310222272689</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>1.745477</v>
+        <v>0.8649065</v>
       </c>
       <c r="N20">
-        <v>5.236431</v>
+        <v>1.729813</v>
       </c>
       <c r="O20">
-        <v>0.01161494266836776</v>
+        <v>0.002947465296813262</v>
       </c>
       <c r="P20">
-        <v>0.01166430416009097</v>
+        <v>0.001967406134934711</v>
       </c>
       <c r="Q20">
-        <v>216.6867430397115</v>
+        <v>129.81616913068</v>
       </c>
       <c r="R20">
-        <v>1300.120458238269</v>
+        <v>519.2646765227199</v>
       </c>
       <c r="S20">
-        <v>0.001795474184693677</v>
+        <v>0.0004309333732204889</v>
       </c>
       <c r="T20">
-        <v>0.001332960336554271</v>
+        <v>0.0002115571928257297</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>124.1418495</v>
+        <v>150.09272</v>
       </c>
       <c r="H21">
-        <v>248.283699</v>
+        <v>300.18544</v>
       </c>
       <c r="I21">
-        <v>0.1545831293324837</v>
+        <v>0.1462047318034262</v>
       </c>
       <c r="J21">
-        <v>0.1142768842666972</v>
+        <v>0.1075310222272689</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>80.62584666666666</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N21">
-        <v>241.87754</v>
+        <v>4.007239</v>
       </c>
       <c r="O21">
-        <v>0.5365092674506413</v>
+        <v>0.004552013382770923</v>
       </c>
       <c r="P21">
-        <v>0.5387893387795181</v>
+        <v>0.004557640966248742</v>
       </c>
       <c r="Q21">
-        <v>10009.04172270341</v>
+        <v>200.4858004000267</v>
       </c>
       <c r="R21">
-        <v>60054.25033622046</v>
+        <v>1202.91480240016</v>
       </c>
       <c r="S21">
-        <v>0.0829352814783986</v>
+        <v>0.0006655258957936296</v>
       </c>
       <c r="T21">
-        <v>0.06157116691183731</v>
+        <v>0.0004900877920456049</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>84.22342166666665</v>
+        <v>150.09272</v>
       </c>
       <c r="H22">
-        <v>252.670265</v>
+        <v>300.18544</v>
       </c>
       <c r="I22">
-        <v>0.1048761568863419</v>
+        <v>0.1462047318034262</v>
       </c>
       <c r="J22">
-        <v>0.1162958774471969</v>
+        <v>0.1075310222272689</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.9078655</v>
+        <v>103.650617</v>
       </c>
       <c r="N22">
-        <v>3.815731</v>
+        <v>310.951851</v>
       </c>
       <c r="O22">
-        <v>0.01269552586568416</v>
+        <v>0.353224997847493</v>
       </c>
       <c r="P22">
-        <v>0.00849965309904553</v>
+        <v>0.3536616844287238</v>
       </c>
       <c r="Q22">
-        <v>160.6869604897858</v>
+        <v>15557.20303520824</v>
       </c>
       <c r="R22">
-        <v>964.1217629387149</v>
+        <v>93343.21821124945</v>
       </c>
       <c r="S22">
-        <v>0.001331457962444103</v>
+        <v>0.05164316607655851</v>
       </c>
       <c r="T22">
-        <v>0.000988474615150286</v>
+        <v>0.03802960244923848</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,87 +1836,87 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>84.22342166666665</v>
+        <v>150.09272</v>
       </c>
       <c r="H23">
-        <v>252.670265</v>
+        <v>300.18544</v>
       </c>
       <c r="I23">
-        <v>0.1048761568863419</v>
+        <v>0.1462047318034262</v>
       </c>
       <c r="J23">
-        <v>0.1162958774471969</v>
+        <v>0.1075310222272689</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
-        <v>1.335746333333333</v>
+        <v>0.2220785</v>
       </c>
       <c r="N23">
-        <v>4.007239</v>
+        <v>0.444157</v>
       </c>
       <c r="O23">
-        <v>0.008888468356299806</v>
+        <v>0.0007568085936668807</v>
       </c>
       <c r="P23">
-        <v>0.008926242805105003</v>
+        <v>0.0005051628162548184</v>
       </c>
       <c r="Q23">
-        <v>112.5011266720372</v>
+        <v>33.33236611852</v>
       </c>
       <c r="R23">
-        <v>1012.510140048335</v>
+        <v>133.32946447408</v>
       </c>
       <c r="S23">
-        <v>0.0009321884018145839</v>
+        <v>0.0001106489974635944</v>
       </c>
       <c r="T23">
-        <v>0.001038085239326414</v>
+        <v>5.432067402308665E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>84.22342166666665</v>
+        <v>150.09272</v>
       </c>
       <c r="H24">
-        <v>252.670265</v>
+        <v>300.18544</v>
       </c>
       <c r="I24">
-        <v>0.1048761568863419</v>
+        <v>0.1462047318034262</v>
       </c>
       <c r="J24">
-        <v>0.1162958774471969</v>
+        <v>0.1075310222272689</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>64.66363666666666</v>
+        <v>144.6793443333333</v>
       </c>
       <c r="N24">
-        <v>193.99091</v>
+        <v>434.038033</v>
       </c>
       <c r="O24">
-        <v>0.4302917956590069</v>
+        <v>0.4930444465247936</v>
       </c>
       <c r="P24">
-        <v>0.4321204611562404</v>
+        <v>0.4936539897198103</v>
       </c>
       <c r="Q24">
-        <v>5446.192737476793</v>
+        <v>21715.31631880658</v>
       </c>
       <c r="R24">
-        <v>49015.73463729114</v>
+        <v>130291.8979128395</v>
       </c>
       <c r="S24">
-        <v>0.04512734986843978</v>
+        <v>0.07208543107132614</v>
       </c>
       <c r="T24">
-        <v>0.05025382819305233</v>
+        <v>0.05308311814114092</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,25 +1960,25 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>84.22342166666665</v>
+        <v>150.09272</v>
       </c>
       <c r="H25">
-        <v>252.670265</v>
+        <v>300.18544</v>
       </c>
       <c r="I25">
-        <v>0.1048761568863419</v>
+        <v>0.1462047318034262</v>
       </c>
       <c r="J25">
-        <v>0.1162958774471969</v>
+        <v>0.1075310222272689</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.745477</v>
+        <v>42.688082</v>
       </c>
       <c r="N25">
-        <v>5.236431</v>
+        <v>128.064246</v>
       </c>
       <c r="O25">
-        <v>0.01161494266836776</v>
+        <v>0.1454742683544624</v>
       </c>
       <c r="P25">
-        <v>0.01166430416009097</v>
+        <v>0.1456541159340275</v>
       </c>
       <c r="Q25">
-        <v>147.0100453804683</v>
+        <v>6407.170338963039</v>
       </c>
       <c r="R25">
-        <v>1323.090408424215</v>
+        <v>38443.02203377824</v>
       </c>
       <c r="S25">
-        <v>0.001218130549513604</v>
+        <v>0.02126902638906383</v>
       </c>
       <c r="T25">
-        <v>0.001356510487108768</v>
+        <v>0.01566233597799512</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>84.22342166666665</v>
+        <v>136.4875866666667</v>
       </c>
       <c r="H26">
-        <v>252.670265</v>
+        <v>409.46276</v>
       </c>
       <c r="I26">
-        <v>0.1048761568863419</v>
+        <v>0.1329520246091675</v>
       </c>
       <c r="J26">
-        <v>0.1162958774471969</v>
+        <v>0.1466758319350829</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>80.62584666666666</v>
+        <v>0.8649065</v>
       </c>
       <c r="N26">
-        <v>241.87754</v>
+        <v>1.729813</v>
       </c>
       <c r="O26">
-        <v>0.5365092674506413</v>
+        <v>0.002947465296813262</v>
       </c>
       <c r="P26">
-        <v>0.5387893387795181</v>
+        <v>0.001967406134934711</v>
       </c>
       <c r="Q26">
-        <v>6790.584681038677</v>
+        <v>118.0490008773133</v>
       </c>
       <c r="R26">
-        <v>61115.26212934809</v>
+        <v>708.29400526388</v>
       </c>
       <c r="S26">
-        <v>0.05626703010412983</v>
+        <v>0.000391871478676584</v>
       </c>
       <c r="T26">
-        <v>0.06265897891255907</v>
+        <v>0.0002885709315957346</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>80.34609466666667</v>
+        <v>136.4875866666667</v>
       </c>
       <c r="H27">
-        <v>241.038284</v>
+        <v>409.46276</v>
       </c>
       <c r="I27">
-        <v>0.1000480562617791</v>
+        <v>0.1329520246091675</v>
       </c>
       <c r="J27">
-        <v>0.1109420561859411</v>
+        <v>0.1466758319350829</v>
       </c>
       <c r="K27">
         <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>1.9078655</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N27">
-        <v>3.815731</v>
+        <v>4.007239</v>
       </c>
       <c r="O27">
-        <v>0.01269552586568416</v>
+        <v>0.004552013382770923</v>
       </c>
       <c r="P27">
-        <v>0.00849965309904553</v>
+        <v>0.004557640966248742</v>
       </c>
       <c r="Q27">
-        <v>153.2895420742673</v>
+        <v>182.3127934355156</v>
       </c>
       <c r="R27">
-        <v>919.737252445604</v>
+        <v>1640.81514091964</v>
       </c>
       <c r="S27">
-        <v>0.001270162686082841</v>
+        <v>0.0006051993952874196</v>
       </c>
       <c r="T27">
-        <v>0.0009429689916753179</v>
+        <v>0.0006684957803859491</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>80.34609466666667</v>
+        <v>136.4875866666667</v>
       </c>
       <c r="H28">
-        <v>241.038284</v>
+        <v>409.46276</v>
       </c>
       <c r="I28">
-        <v>0.1000480562617791</v>
+        <v>0.1329520246091675</v>
       </c>
       <c r="J28">
-        <v>0.1109420561859411</v>
+        <v>0.1466758319350829</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>1.335746333333333</v>
+        <v>103.650617</v>
       </c>
       <c r="N28">
-        <v>4.007239</v>
+        <v>310.951851</v>
       </c>
       <c r="O28">
-        <v>0.008888468356299806</v>
+        <v>0.353224997847493</v>
       </c>
       <c r="P28">
-        <v>0.008926242805105003</v>
+        <v>0.3536616844287238</v>
       </c>
       <c r="Q28">
-        <v>107.3220013486529</v>
+        <v>14147.02257084097</v>
       </c>
       <c r="R28">
-        <v>965.8980121378761</v>
+        <v>127323.2031375688</v>
       </c>
       <c r="S28">
-        <v>0.0008892739821921265</v>
+        <v>0.04696197860639303</v>
       </c>
       <c r="T28">
-        <v>0.000990295730813312</v>
+        <v>0.0518736217871458</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>80.34609466666667</v>
+        <v>136.4875866666667</v>
       </c>
       <c r="H29">
-        <v>241.038284</v>
+        <v>409.46276</v>
       </c>
       <c r="I29">
-        <v>0.1000480562617791</v>
+        <v>0.1329520246091675</v>
       </c>
       <c r="J29">
-        <v>0.1109420561859411</v>
+        <v>0.1466758319350829</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M29">
-        <v>64.66363666666666</v>
+        <v>0.2220785</v>
       </c>
       <c r="N29">
-        <v>193.99091</v>
+        <v>0.444157</v>
       </c>
       <c r="O29">
-        <v>0.4302917956590069</v>
+        <v>0.0007568085936668807</v>
       </c>
       <c r="P29">
-        <v>0.4321204611562404</v>
+        <v>0.0005051628162548184</v>
       </c>
       <c r="Q29">
-        <v>5195.470673110938</v>
+        <v>30.31095851555333</v>
       </c>
       <c r="R29">
-        <v>46759.23605799844</v>
+        <v>181.86575109332</v>
       </c>
       <c r="S29">
-        <v>0.0430498577810743</v>
+        <v>0.0001006192347696286</v>
       </c>
       <c r="T29">
-        <v>0.04794033248069042</v>
+        <v>7.409517633684488E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>80.34609466666667</v>
+        <v>136.4875866666667</v>
       </c>
       <c r="H30">
-        <v>241.038284</v>
+        <v>409.46276</v>
       </c>
       <c r="I30">
-        <v>0.1000480562617791</v>
+        <v>0.1329520246091675</v>
       </c>
       <c r="J30">
-        <v>0.1109420561859411</v>
+        <v>0.1466758319350829</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,33 +2297,33 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.745477</v>
+        <v>144.6793443333333</v>
       </c>
       <c r="N30">
-        <v>5.236431</v>
+        <v>434.038033</v>
       </c>
       <c r="O30">
-        <v>0.01161494266836776</v>
+        <v>0.4930444465247936</v>
       </c>
       <c r="P30">
-        <v>0.01166430416009097</v>
+        <v>0.4936539897198103</v>
       </c>
       <c r="Q30">
-        <v>140.2422602804893</v>
+        <v>19746.93454857234</v>
       </c>
       <c r="R30">
-        <v>1262.180342524404</v>
+        <v>177722.4109371511</v>
       </c>
       <c r="S30">
-        <v>0.001162052437562197</v>
+        <v>0.06555125738777773</v>
       </c>
       <c r="T30">
-        <v>0.001294061887498719</v>
+        <v>0.07240710963022602</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>80.34609466666667</v>
+        <v>136.4875866666667</v>
       </c>
       <c r="H31">
-        <v>241.038284</v>
+        <v>409.46276</v>
       </c>
       <c r="I31">
-        <v>0.1000480562617791</v>
+        <v>0.1329520246091675</v>
       </c>
       <c r="J31">
-        <v>0.1109420561859411</v>
+        <v>0.1466758319350829</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>80.62584666666666</v>
+        <v>42.688082</v>
       </c>
       <c r="N31">
-        <v>241.87754</v>
+        <v>128.064246</v>
       </c>
       <c r="O31">
-        <v>0.5365092674506413</v>
+        <v>0.1454742683544624</v>
       </c>
       <c r="P31">
-        <v>0.5387893387795181</v>
+        <v>0.1456541159340275</v>
       </c>
       <c r="Q31">
-        <v>6477.971908860151</v>
+        <v>5826.393291608773</v>
       </c>
       <c r="R31">
-        <v>58301.74717974136</v>
+        <v>52437.53962447896</v>
       </c>
       <c r="S31">
-        <v>0.05367670937486767</v>
+        <v>0.01934109850626312</v>
       </c>
       <c r="T31">
-        <v>0.05977439709526337</v>
+        <v>0.0213639386293925</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>172.4578476666667</v>
+      </c>
+      <c r="H32">
+        <v>517.373543</v>
+      </c>
+      <c r="I32">
+        <v>0.1679905152328583</v>
+      </c>
+      <c r="J32">
+        <v>0.1853311271597113</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.8649065</v>
+      </c>
+      <c r="N32">
+        <v>1.729813</v>
+      </c>
+      <c r="O32">
+        <v>0.002947465296813262</v>
+      </c>
+      <c r="P32">
+        <v>0.001967406134934711</v>
+      </c>
+      <c r="Q32">
+        <v>149.1599134229099</v>
+      </c>
+      <c r="R32">
+        <v>894.9594805374591</v>
+      </c>
+      <c r="S32">
+        <v>0.0004951462138426294</v>
+      </c>
+      <c r="T32">
+        <v>0.000364621596568381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>172.4578476666667</v>
+      </c>
+      <c r="H33">
+        <v>517.373543</v>
+      </c>
+      <c r="I33">
+        <v>0.1679905152328583</v>
+      </c>
+      <c r="J33">
+        <v>0.1853311271597113</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>1.335746333333333</v>
+      </c>
+      <c r="N33">
+        <v>4.007239</v>
+      </c>
+      <c r="O33">
+        <v>0.004552013382770923</v>
+      </c>
+      <c r="P33">
+        <v>0.004557640966248742</v>
+      </c>
+      <c r="Q33">
+        <v>230.3599376753086</v>
+      </c>
+      <c r="R33">
+        <v>2073.239439077777</v>
+      </c>
+      <c r="S33">
+        <v>0.0007646950735185535</v>
+      </c>
+      <c r="T33">
+        <v>0.000844672737464155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>172.4578476666667</v>
+      </c>
+      <c r="H34">
+        <v>517.373543</v>
+      </c>
+      <c r="I34">
+        <v>0.1679905152328583</v>
+      </c>
+      <c r="J34">
+        <v>0.1853311271597113</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>103.650617</v>
+      </c>
+      <c r="N34">
+        <v>310.951851</v>
+      </c>
+      <c r="O34">
+        <v>0.353224997847493</v>
+      </c>
+      <c r="P34">
+        <v>0.3536616844287238</v>
+      </c>
+      <c r="Q34">
+        <v>17875.36231714201</v>
+      </c>
+      <c r="R34">
+        <v>160878.2608542781</v>
+      </c>
+      <c r="S34">
+        <v>0.0593384493815256</v>
+      </c>
+      <c r="T34">
+        <v>0.06554451860837751</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>172.4578476666667</v>
+      </c>
+      <c r="H35">
+        <v>517.373543</v>
+      </c>
+      <c r="I35">
+        <v>0.1679905152328583</v>
+      </c>
+      <c r="J35">
+        <v>0.1853311271597113</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0.2220785</v>
+      </c>
+      <c r="N35">
+        <v>0.444157</v>
+      </c>
+      <c r="O35">
+        <v>0.0007568085936668807</v>
+      </c>
+      <c r="P35">
+        <v>0.0005051628162548184</v>
+      </c>
+      <c r="Q35">
+        <v>38.29918012304184</v>
+      </c>
+      <c r="R35">
+        <v>229.795080738251</v>
+      </c>
+      <c r="S35">
+        <v>0.0001271366655827542</v>
+      </c>
+      <c r="T35">
+        <v>9.362239413567962E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>172.4578476666667</v>
+      </c>
+      <c r="H36">
+        <v>517.373543</v>
+      </c>
+      <c r="I36">
+        <v>0.1679905152328583</v>
+      </c>
+      <c r="J36">
+        <v>0.1853311271597113</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>144.6793443333333</v>
+      </c>
+      <c r="N36">
+        <v>434.038033</v>
+      </c>
+      <c r="O36">
+        <v>0.4930444465247936</v>
+      </c>
+      <c r="P36">
+        <v>0.4936539897198103</v>
+      </c>
+      <c r="Q36">
+        <v>24951.08832555121</v>
+      </c>
+      <c r="R36">
+        <v>224559.7949299609</v>
+      </c>
+      <c r="S36">
+        <v>0.08282679060439951</v>
+      </c>
+      <c r="T36">
+        <v>0.09148945034166099</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>172.4578476666667</v>
+      </c>
+      <c r="H37">
+        <v>517.373543</v>
+      </c>
+      <c r="I37">
+        <v>0.1679905152328583</v>
+      </c>
+      <c r="J37">
+        <v>0.1853311271597113</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>42.688082</v>
+      </c>
+      <c r="N37">
+        <v>128.064246</v>
+      </c>
+      <c r="O37">
+        <v>0.1454742683544624</v>
+      </c>
+      <c r="P37">
+        <v>0.1456541159340275</v>
+      </c>
+      <c r="Q37">
+        <v>7361.894742738176</v>
+      </c>
+      <c r="R37">
+        <v>66257.05268464358</v>
+      </c>
+      <c r="S37">
+        <v>0.02443829729398923</v>
+      </c>
+      <c r="T37">
+        <v>0.02699424148150459</v>
       </c>
     </row>
   </sheetData>
